--- a/Sales_Data.xlsx
+++ b/Sales_Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIG DATA\DATA ANALYTICS WITH R, EXCEL &amp; TABLEAU\28 EXCEL ANALYTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{EF8C7FAF-C1EA-412B-8AF4-682CAC9BFA2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AFF34A90-B9B2-460C-9B5B-9A1F78C88C2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$201</definedName>
     <definedName name="Sales_dataset" localSheetId="0">Sheet1!$A$1:$D$201</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Sales_dataset" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Sales_dataset" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="E:\Corporate Training\Final Slides\Excel\datasets\Sales_dataset.txt" tab="0" delimiter="|">
       <textFields count="4">
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,9 +546,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -608,7 +614,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sales_dataset" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Sales_dataset" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -919,10 +925,10 @@
     <col min="1" max="1" width="12.3671875" customWidth="1"/>
     <col min="2" max="2" width="11.578125" customWidth="1"/>
     <col min="3" max="3" width="15.62890625" customWidth="1"/>
-    <col min="4" max="4" width="14.89453125" customWidth="1"/>
+    <col min="4" max="4" width="14.89453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,11 +938,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10.256</v>
       </c>
@@ -946,11 +952,15 @@
       <c r="C2">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" t="str">
+        <f>"C"&amp;D2</f>
+        <v>C10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>985.68499999999995</v>
       </c>
@@ -960,11 +970,15 @@
       <c r="C3">
         <v>28</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">"C"&amp;D3</f>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1445.5630000000001</v>
       </c>
@@ -974,11 +988,15 @@
       <c r="C4">
         <v>35</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1188.193</v>
       </c>
@@ -988,11 +1006,15 @@
       <c r="C5">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>574.51300000000003</v>
       </c>
@@ -1002,11 +1024,15 @@
       <c r="C6" s="1">
         <v>44</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>568.95399999999995</v>
       </c>
@@ -1016,11 +1042,15 @@
       <c r="C7" s="1">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>471.81400000000002</v>
       </c>
@@ -1030,11 +1060,15 @@
       <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>537.35199999999998</v>
       </c>
@@ -1044,11 +1078,15 @@
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>514.06799999999998</v>
       </c>
@@ -1058,11 +1096,15 @@
       <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>174.09299999999999</v>
       </c>
@@ -1072,11 +1114,15 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1720.806</v>
       </c>
@@ -1086,11 +1132,15 @@
       <c r="C12">
         <v>32</v>
       </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>611.47900000000004</v>
       </c>
@@ -1100,11 +1150,15 @@
       <c r="C13" s="1">
         <v>20</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>251.19200000000001</v>
       </c>
@@ -1114,11 +1168,15 @@
       <c r="C14">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>97.971999999999994</v>
       </c>
@@ -1128,11 +1186,15 @@
       <c r="C15">
         <v>38</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>406.81400000000002</v>
       </c>
@@ -1142,11 +1204,15 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>265.39800000000002</v>
       </c>
@@ -1156,11 +1222,15 @@
       <c r="C17" s="1">
         <v>25</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1323.287</v>
       </c>
@@ -1170,11 +1240,15 @@
       <c r="C18" s="1">
         <v>35</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>196.65</v>
       </c>
@@ -1184,11 +1258,15 @@
       <c r="C19">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1326.598</v>
       </c>
@@ -1198,11 +1276,15 @@
       <c r="C20">
         <v>27</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1380.6890000000001</v>
       </c>
@@ -1212,11 +1294,15 @@
       <c r="C21">
         <v>33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>792.34500000000003</v>
       </c>
@@ -1226,11 +1312,15 @@
       <c r="C22">
         <v>33</v>
       </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>957.16700000000003</v>
       </c>
@@ -1240,11 +1330,15 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1789.6590000000001</v>
       </c>
@@ -1254,11 +1348,15 @@
       <c r="C24">
         <v>30</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>656.13699999999994</v>
       </c>
@@ -1268,11 +1366,15 @@
       <c r="C25">
         <v>34</v>
       </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>613.697</v>
       </c>
@@ -1282,11 +1384,15 @@
       <c r="C26">
         <v>49</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>313.36200000000002</v>
       </c>
@@ -1296,11 +1402,15 @@
       <c r="C27">
         <v>40</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>336.51</v>
       </c>
@@ -1310,11 +1420,15 @@
       <c r="C28" s="1">
         <v>20</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1544.8989999999999</v>
       </c>
@@ -1324,11 +1438,15 @@
       <c r="C29">
         <v>42</v>
       </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>68.953999999999994</v>
       </c>
@@ -1338,11 +1456,15 @@
       <c r="C30">
         <v>35</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>785.69200000000001</v>
       </c>
@@ -1352,11 +1474,15 @@
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>125.628</v>
       </c>
@@ -1366,11 +1492,15 @@
       <c r="C32">
         <v>49</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>377.92500000000001</v>
       </c>
@@ -1380,11 +1510,15 @@
       <c r="C33">
         <v>19</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>217.994</v>
       </c>
@@ -1394,11 +1528,15 @@
       <c r="C34">
         <v>42</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>759.86199999999997</v>
       </c>
@@ -1408,11 +1546,15 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="2">
+        <v>7</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1163.444</v>
       </c>
@@ -1422,11 +1564,15 @@
       <c r="C36">
         <v>36</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>842.95699999999999</v>
       </c>
@@ -1436,11 +1582,15 @@
       <c r="C37">
         <v>32</v>
       </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>125.179</v>
       </c>
@@ -1450,11 +1600,15 @@
       <c r="C38">
         <v>28</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>236.59800000000001</v>
       </c>
@@ -1464,11 +1618,15 @@
       <c r="C39">
         <v>25</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>669.81100000000004</v>
       </c>
@@ -1478,11 +1636,15 @@
       <c r="C40">
         <v>34</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>612.23400000000004</v>
       </c>
@@ -1492,11 +1654,15 @@
       <c r="C41">
         <v>21</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>922.01900000000001</v>
       </c>
@@ -1506,11 +1672,15 @@
       <c r="C42">
         <v>34</v>
       </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="2">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>50</v>
       </c>
@@ -1520,11 +1690,15 @@
       <c r="C43">
         <v>63</v>
       </c>
-      <c r="D43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="2">
+        <v>7</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -1534,11 +1708,15 @@
       <c r="C44">
         <v>31</v>
       </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="2">
+        <v>7</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1054.027</v>
       </c>
@@ -1548,11 +1726,15 @@
       <c r="C45">
         <v>25</v>
       </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>385.04500000000002</v>
       </c>
@@ -1562,11 +1744,15 @@
       <c r="C46">
         <v>42</v>
       </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="2">
+        <v>7</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1507.972</v>
       </c>
@@ -1576,11 +1762,15 @@
       <c r="C47">
         <v>37</v>
       </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>102.568</v>
       </c>
@@ -1590,11 +1780,15 @@
       <c r="C48">
         <v>25</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>204.56800000000001</v>
       </c>
@@ -1604,11 +1798,15 @@
       <c r="C49">
         <v>26</v>
       </c>
-      <c r="D49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="2">
+        <v>7</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1170.9179999999999</v>
       </c>
@@ -1618,11 +1816,15 @@
       <c r="C50">
         <v>39</v>
       </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="2">
+        <v>7</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>689.54700000000003</v>
       </c>
@@ -1632,11 +1834,15 @@
       <c r="C51">
         <v>46</v>
       </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="2">
+        <v>7</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>784.22</v>
       </c>
@@ -1646,11 +1852,15 @@
       <c r="C52">
         <v>36</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>405.91300000000001</v>
       </c>
@@ -1660,11 +1870,15 @@
       <c r="C53" s="1">
         <v>12</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>179.77799999999999</v>
       </c>
@@ -1674,11 +1888,15 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>607.25800000000004</v>
       </c>
@@ -1688,11 +1906,15 @@
       <c r="C55">
         <v>29</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>1542.329</v>
       </c>
@@ -1702,11 +1924,15 @@
       <c r="C56">
         <v>33</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>1112.47</v>
       </c>
@@ -1716,11 +1942,15 @@
       <c r="C57">
         <v>28</v>
       </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="2">
+        <v>7</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>856.98500000000001</v>
       </c>
@@ -1730,11 +1960,15 @@
       <c r="C58">
         <v>10</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>836.33100000000002</v>
       </c>
@@ -1744,11 +1978,15 @@
       <c r="C59">
         <v>38</v>
       </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="2">
+        <v>7</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>236.90799999999999</v>
       </c>
@@ -1758,11 +1996,15 @@
       <c r="C60" s="1">
         <v>19</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>1077.855</v>
       </c>
@@ -1772,11 +2014,15 @@
       <c r="C61">
         <v>13</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>579.32100000000003</v>
       </c>
@@ -1786,11 +2032,15 @@
       <c r="C62">
         <v>30</v>
       </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="2">
+        <v>7</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>1500</v>
       </c>
@@ -1800,11 +2050,15 @@
       <c r="C63">
         <v>38</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>731.36400000000003</v>
       </c>
@@ -1814,11 +2068,15 @@
       <c r="C64">
         <v>22</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>25.689</v>
       </c>
@@ -1828,11 +2086,15 @@
       <c r="C65">
         <v>23</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>391.74900000000002</v>
       </c>
@@ -1842,11 +2104,15 @@
       <c r="C66">
         <v>22</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>233.999</v>
       </c>
@@ -1856,11 +2122,15 @@
       <c r="C67">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="2">
+        <v>7</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="1">"C"&amp;D67</f>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>275.7</v>
       </c>
@@ -1870,11 +2140,15 @@
       <c r="C68">
         <v>18</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>56.895000000000003</v>
       </c>
@@ -1884,11 +2158,15 @@
       <c r="C69">
         <v>37</v>
       </c>
-      <c r="D69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="2">
+        <v>7</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>255.11699999999999</v>
       </c>
@@ -1898,11 +2176,15 @@
       <c r="C70">
         <v>16</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>566.50099999999998</v>
       </c>
@@ -1912,11 +2194,15 @@
       <c r="C71">
         <v>32</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>102.568</v>
       </c>
@@ -1926,11 +2212,15 @@
       <c r="C72" s="1">
         <v>26</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>250.56800000000001</v>
       </c>
@@ -1940,11 +2230,15 @@
       <c r="C73">
         <v>53</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>68.593999999999994</v>
       </c>
@@ -1954,11 +2248,15 @@
       <c r="C74">
         <v>28</v>
       </c>
-      <c r="D74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="2">
+        <v>7</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>642.78599999999994</v>
       </c>
@@ -1968,11 +2266,15 @@
       <c r="C75">
         <v>32</v>
       </c>
-      <c r="D75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="2">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>1500</v>
       </c>
@@ -1982,11 +2284,15 @@
       <c r="C76">
         <v>24</v>
       </c>
-      <c r="D76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="2">
+        <v>7</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>102.563</v>
       </c>
@@ -1996,11 +2302,15 @@
       <c r="C77">
         <v>37</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>756.98400000000004</v>
       </c>
@@ -2010,11 +2320,15 @@
       <c r="C78">
         <v>30</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>51.228999999999999</v>
       </c>
@@ -2024,11 +2338,15 @@
       <c r="C79">
         <v>19</v>
       </c>
-      <c r="D79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="2">
+        <v>7</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>644.15099999999995</v>
       </c>
@@ -2038,11 +2356,15 @@
       <c r="C80">
         <v>47</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>15.313000000000001</v>
       </c>
@@ -2052,11 +2374,15 @@
       <c r="C81" s="1">
         <v>22</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>243.23699999999999</v>
       </c>
@@ -2066,11 +2392,15 @@
       <c r="C82">
         <v>10</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>256.89400000000001</v>
       </c>
@@ -2080,11 +2410,15 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>22.463999999999999</v>
       </c>
@@ -2094,11 +2428,15 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>45.689</v>
       </c>
@@ -2108,11 +2446,15 @@
       <c r="C85">
         <v>39</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>724.93799999999999</v>
       </c>
@@ -2122,11 +2464,15 @@
       <c r="C86" s="1">
         <v>8</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1126.461</v>
       </c>
@@ -2136,11 +2482,15 @@
       <c r="C87">
         <v>38</v>
       </c>
-      <c r="D87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="2">
+        <v>7</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>1985.1189999999999</v>
       </c>
@@ -2150,11 +2500,15 @@
       <c r="C88" s="1">
         <v>35</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>1837.5160000000001</v>
       </c>
@@ -2164,11 +2518,15 @@
       <c r="C89" s="1">
         <v>40</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>135.98599999999999</v>
       </c>
@@ -2178,11 +2536,15 @@
       <c r="C90">
         <v>22</v>
       </c>
-      <c r="D90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="2">
+        <v>7</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>237.703</v>
       </c>
@@ -2192,11 +2554,15 @@
       <c r="C91">
         <v>27</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>976.64099999999996</v>
       </c>
@@ -2206,11 +2572,15 @@
       <c r="C92">
         <v>31</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>1452.6890000000001</v>
       </c>
@@ -2220,11 +2590,15 @@
       <c r="C93">
         <v>19</v>
       </c>
-      <c r="D93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="2">
+        <v>7</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1600</v>
       </c>
@@ -2234,11 +2608,15 @@
       <c r="C94">
         <v>24</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>268.59800000000001</v>
       </c>
@@ -2248,11 +2626,15 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="2">
+        <v>7</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>900.88900000000001</v>
       </c>
@@ -2262,11 +2644,15 @@
       <c r="C96">
         <v>38</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>982.06299999999999</v>
       </c>
@@ -2276,11 +2662,15 @@
       <c r="C97">
         <v>26</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>201.35599999999999</v>
       </c>
@@ -2290,11 +2680,15 @@
       <c r="C98">
         <v>11</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>746.024</v>
       </c>
@@ -2304,11 +2698,15 @@
       <c r="C99">
         <v>34</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>1132.877</v>
       </c>
@@ -2318,11 +2716,15 @@
       <c r="C100">
         <v>55</v>
       </c>
-      <c r="D100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="2">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1000</v>
       </c>
@@ -2332,11 +2734,15 @@
       <c r="C101">
         <v>5</v>
       </c>
-      <c r="D101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="2">
+        <v>7</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>75.896000000000001</v>
       </c>
@@ -2346,11 +2752,15 @@
       <c r="C102">
         <v>34</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>1351.2539999999999</v>
       </c>
@@ -2360,11 +2770,15 @@
       <c r="C103">
         <v>37</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>202.70500000000001</v>
       </c>
@@ -2374,11 +2788,15 @@
       <c r="C104">
         <v>13</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>365.98500000000001</v>
       </c>
@@ -2388,11 +2806,15 @@
       <c r="C105">
         <v>23</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>305.26799999999997</v>
       </c>
@@ -2402,11 +2824,15 @@
       <c r="C106">
         <v>54</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>263.26799999999997</v>
       </c>
@@ -2416,11 +2842,15 @@
       <c r="C107">
         <v>18</v>
       </c>
-      <c r="D107">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" s="2">
+        <v>7</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>513.69399999999996</v>
       </c>
@@ -2430,11 +2860,15 @@
       <c r="C108">
         <v>2</v>
       </c>
-      <c r="D108">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="2">
+        <v>7</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>152.60900000000001</v>
       </c>
@@ -2444,11 +2878,15 @@
       <c r="C109">
         <v>11</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>35.987000000000002</v>
       </c>
@@ -2458,11 +2896,15 @@
       <c r="C110">
         <v>30</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>102.568</v>
       </c>
@@ -2472,11 +2914,15 @@
       <c r="C111">
         <v>22</v>
       </c>
-      <c r="D111">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" s="2">
+        <v>7</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>215.36799999999999</v>
       </c>
@@ -2486,11 +2932,15 @@
       <c r="C112">
         <v>36</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>426.78399999999999</v>
       </c>
@@ -2500,11 +2950,15 @@
       <c r="C113">
         <v>37</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>507.77199999999999</v>
       </c>
@@ -2514,11 +2968,15 @@
       <c r="C114" s="1">
         <v>9</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>233.291</v>
       </c>
@@ -2528,11 +2986,15 @@
       <c r="C115">
         <v>2</v>
       </c>
-      <c r="D115">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="2">
+        <v>7</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>1035.433</v>
       </c>
@@ -2542,11 +3004,15 @@
       <c r="C116">
         <v>12</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>102.642</v>
       </c>
@@ -2556,11 +3022,15 @@
       <c r="C117">
         <v>5</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>526.14200000000005</v>
       </c>
@@ -2570,11 +3040,15 @@
       <c r="C118">
         <v>14</v>
       </c>
-      <c r="D118">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="2">
+        <v>7</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>624.53800000000001</v>
       </c>
@@ -2584,11 +3058,15 @@
       <c r="C119" s="1">
         <v>20</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>912.34900000000005</v>
       </c>
@@ -2598,11 +3076,15 @@
       <c r="C120">
         <v>57</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>215.994</v>
       </c>
@@ -2612,11 +3094,15 @@
       <c r="C121">
         <v>19</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>561.96299999999997</v>
       </c>
@@ -2626,11 +3112,15 @@
       <c r="C122">
         <v>35</v>
       </c>
-      <c r="D122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" s="2">
+        <v>7</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>474.76</v>
       </c>
@@ -2640,11 +3130,15 @@
       <c r="C123" s="1">
         <v>22</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>231.523</v>
       </c>
@@ -2654,11 +3148,15 @@
       <c r="C124">
         <v>16</v>
       </c>
-      <c r="D124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="2">
+        <v>7</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>678.596</v>
       </c>
@@ -2668,11 +3166,15 @@
       <c r="C125">
         <v>53</v>
       </c>
-      <c r="D125">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" s="2">
+        <v>7</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>70.921999999999997</v>
       </c>
@@ -2682,11 +3184,15 @@
       <c r="C126">
         <v>4</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>1567.548</v>
       </c>
@@ -2696,11 +3202,15 @@
       <c r="C127">
         <v>29</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>263.59800000000001</v>
       </c>
@@ -2710,11 +3220,15 @@
       <c r="C128">
         <v>43</v>
       </c>
-      <c r="D128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="2">
+        <v>7</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>1423.568</v>
       </c>
@@ -2724,11 +3238,15 @@
       <c r="C129">
         <v>26</v>
       </c>
-      <c r="D129">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" s="2">
+        <v>7</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>715.678</v>
       </c>
@@ -2738,11 +3256,15 @@
       <c r="C130">
         <v>28</v>
       </c>
-      <c r="D130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130" s="2">
+        <v>7</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>777.23699999999997</v>
       </c>
@@ -2752,11 +3274,15 @@
       <c r="C131">
         <v>37</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="2">"C"&amp;D131</f>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>509.43</v>
       </c>
@@ -2766,11 +3292,15 @@
       <c r="C132" s="1">
         <v>32</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>964.11</v>
       </c>
@@ -2780,11 +3310,15 @@
       <c r="C133">
         <v>34</v>
       </c>
-      <c r="D133">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133" s="2">
+        <v>7</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>583.62699999999995</v>
       </c>
@@ -2794,11 +3328,15 @@
       <c r="C134">
         <v>30</v>
       </c>
-      <c r="D134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="2">
+        <v>7</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>923.37300000000005</v>
       </c>
@@ -2808,11 +3346,15 @@
       <c r="C135">
         <v>15</v>
       </c>
-      <c r="D135">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="2">
+        <v>7</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>344.392</v>
       </c>
@@ -2822,11 +3364,15 @@
       <c r="C136">
         <v>23</v>
       </c>
-      <c r="D136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="2">
+        <v>7</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>1095.578</v>
       </c>
@@ -2836,11 +3382,15 @@
       <c r="C137">
         <v>31</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>100.02500000000001</v>
       </c>
@@ -2850,11 +3400,15 @@
       <c r="C138" s="1">
         <v>21</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>30.425000000000001</v>
       </c>
@@ -2864,11 +3418,15 @@
       <c r="C139" s="1">
         <v>28</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>1080.3420000000001</v>
       </c>
@@ -2878,11 +3436,15 @@
       <c r="C140">
         <v>18</v>
       </c>
-      <c r="D140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="2">
+        <v>7</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>799.899</v>
       </c>
@@ -2892,11 +3454,15 @@
       <c r="C141">
         <v>28</v>
       </c>
-      <c r="D141">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="2">
+        <v>7</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>107.752</v>
       </c>
@@ -2906,11 +3472,15 @@
       <c r="C142">
         <v>37</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>893.35500000000002</v>
       </c>
@@ -2920,11 +3490,15 @@
       <c r="C143">
         <v>26</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>283.161</v>
       </c>
@@ -2934,11 +3508,15 @@
       <c r="C144">
         <v>30</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>917.01700000000005</v>
       </c>
@@ -2948,11 +3526,15 @@
       <c r="C145">
         <v>10</v>
       </c>
-      <c r="D145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145" s="2">
+        <v>7</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>234.56800000000001</v>
       </c>
@@ -2962,11 +3544,15 @@
       <c r="C146">
         <v>21</v>
       </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146" s="2">
+        <v>7</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>456.89699999999999</v>
       </c>
@@ -2976,11 +3562,15 @@
       <c r="C147">
         <v>18</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>206.97300000000001</v>
       </c>
@@ -2990,11 +3580,15 @@
       <c r="C148">
         <v>14</v>
       </c>
-      <c r="D148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148" s="2">
+        <v>7</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1294.0989999999999</v>
       </c>
@@ -3004,11 +3598,15 @@
       <c r="C149">
         <v>38</v>
       </c>
-      <c r="D149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149" s="2">
+        <v>7</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>826.85900000000004</v>
       </c>
@@ -3018,11 +3616,15 @@
       <c r="C150">
         <v>36</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>564.15800000000002</v>
       </c>
@@ -3032,11 +3634,15 @@
       <c r="C151">
         <v>32</v>
       </c>
-      <c r="D151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="2">
+        <v>7</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>192.607</v>
       </c>
@@ -3046,11 +3652,15 @@
       <c r="C152" s="1">
         <v>9</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>10.651999999999999</v>
       </c>
@@ -3060,11 +3670,15 @@
       <c r="C153" s="1">
         <v>39</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>45.689</v>
       </c>
@@ -3074,11 +3688,15 @@
       <c r="C154">
         <v>24</v>
       </c>
-      <c r="D154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154" s="2">
+        <v>7</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>42.567999999999998</v>
       </c>
@@ -3088,11 +3706,15 @@
       <c r="C155">
         <v>45</v>
       </c>
-      <c r="D155">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155" s="2">
+        <v>7</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>20.456</v>
       </c>
@@ -3102,11 +3724,15 @@
       <c r="C156">
         <v>13</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>635.19200000000001</v>
       </c>
@@ -3116,11 +3742,15 @@
       <c r="C157">
         <v>17</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>1002.273</v>
       </c>
@@ -3130,11 +3760,15 @@
       <c r="C158">
         <v>32</v>
       </c>
-      <c r="D158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158" s="2">
+        <v>7</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1177.047</v>
       </c>
@@ -3144,11 +3778,15 @@
       <c r="C159">
         <v>23</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>507.63799999999998</v>
       </c>
@@ -3158,11 +3796,15 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>215.68899999999999</v>
       </c>
@@ -3172,11 +3814,15 @@
       <c r="C161" s="1">
         <v>35</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>526.48</v>
       </c>
@@ -3186,11 +3832,15 @@
       <c r="C162">
         <v>26</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>26.895</v>
       </c>
@@ -3200,11 +3850,15 @@
       <c r="C163">
         <v>19</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>883.87699999999995</v>
       </c>
@@ -3214,11 +3868,15 @@
       <c r="C164">
         <v>26</v>
       </c>
-      <c r="D164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="2">
+        <v>7</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>9.1039999999999992</v>
       </c>
@@ -3228,11 +3886,15 @@
       <c r="C165">
         <v>53</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>103.568</v>
       </c>
@@ -3242,11 +3904,15 @@
       <c r="C166">
         <v>29</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>169.583</v>
       </c>
@@ -3256,11 +3922,15 @@
       <c r="C167">
         <v>28</v>
       </c>
-      <c r="D167">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="2">
+        <v>7</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>429.50400000000002</v>
       </c>
@@ -3270,11 +3940,15 @@
       <c r="C168">
         <v>17</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>223.63900000000001</v>
       </c>
@@ -3284,11 +3958,15 @@
       <c r="C169">
         <v>26</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>145.58500000000001</v>
       </c>
@@ -3298,11 +3976,15 @@
       <c r="C170">
         <v>42</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>985.96799999999996</v>
       </c>
@@ -3312,11 +3994,15 @@
       <c r="C171">
         <v>17</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>500.92200000000003</v>
       </c>
@@ -3326,11 +4012,15 @@
       <c r="C172">
         <v>36</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>226.65199999999999</v>
       </c>
@@ -3340,11 +4030,15 @@
       <c r="C173">
         <v>45</v>
       </c>
-      <c r="D173">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173" s="2">
+        <v>7</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>1051.1679999999999</v>
       </c>
@@ -3354,11 +4048,15 @@
       <c r="C174">
         <v>20</v>
       </c>
-      <c r="D174">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174" s="2">
+        <v>7</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>68.093000000000004</v>
       </c>
@@ -3368,11 +4066,15 @@
       <c r="C175">
         <v>15</v>
       </c>
-      <c r="D175">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="2">
+        <v>7</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>1547.1590000000001</v>
       </c>
@@ -3382,11 +4084,15 @@
       <c r="C176">
         <v>28</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>393.774</v>
       </c>
@@ -3396,11 +4102,15 @@
       <c r="C177">
         <v>27</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>804.28200000000004</v>
       </c>
@@ -3410,11 +4120,15 @@
       <c r="C178">
         <v>17</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>801.577</v>
       </c>
@@ -3424,11 +4138,15 @@
       <c r="C179">
         <v>32</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>450.56200000000001</v>
       </c>
@@ -3438,11 +4156,15 @@
       <c r="C180">
         <v>46</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>26.597999999999999</v>
       </c>
@@ -3452,11 +4174,15 @@
       <c r="C181">
         <v>47</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>179.06100000000001</v>
       </c>
@@ -3466,11 +4192,15 @@
       <c r="C182" s="1">
         <v>19</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>345.68700000000001</v>
       </c>
@@ -3480,11 +4210,15 @@
       <c r="C183">
         <v>22</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>295.83999999999997</v>
       </c>
@@ -3494,11 +4228,15 @@
       <c r="C184">
         <v>55</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>2271.86</v>
       </c>
@@ -3508,11 +4246,15 @@
       <c r="C185" s="1">
         <v>31</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>1134.575</v>
       </c>
@@ -3522,11 +4264,15 @@
       <c r="C186">
         <v>39</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>601.43399999999997</v>
       </c>
@@ -3536,11 +4282,15 @@
       <c r="C187">
         <v>21</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>45.298000000000002</v>
       </c>
@@ -3550,11 +4300,15 @@
       <c r="C188">
         <v>36</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>759.51800000000003</v>
       </c>
@@ -3564,11 +4318,15 @@
       <c r="C189">
         <v>21</v>
       </c>
-      <c r="D189">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D189" s="2">
+        <v>7</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>832.86900000000003</v>
       </c>
@@ -3578,11 +4336,15 @@
       <c r="C190">
         <v>44</v>
       </c>
-      <c r="D190">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D190" s="2">
+        <v>7</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>56.893999999999998</v>
       </c>
@@ -3592,11 +4354,15 @@
       <c r="C191">
         <v>27</v>
       </c>
-      <c r="D191">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="2">
+        <v>7</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>709.399</v>
       </c>
@@ -3606,11 +4372,15 @@
       <c r="C192">
         <v>16</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>56.895000000000003</v>
       </c>
@@ -3620,11 +4390,15 @@
       <c r="C193">
         <v>33</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>767.13400000000001</v>
       </c>
@@ -3634,11 +4408,15 @@
       <c r="C194">
         <v>33</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>303.17200000000003</v>
       </c>
@@ -3648,11 +4426,15 @@
       <c r="C195">
         <v>21</v>
       </c>
-      <c r="D195">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195" s="2">
+        <v>7</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E201" si="3">"C"&amp;D195</f>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>700.92899999999997</v>
       </c>
@@ -3662,11 +4444,15 @@
       <c r="C196">
         <v>35</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196" t="str">
+        <f t="shared" si="3"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>910.851</v>
       </c>
@@ -3676,11 +4462,15 @@
       <c r="C197">
         <v>26</v>
       </c>
-      <c r="D197">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D197" s="2">
+        <v>7</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>888.56899999999996</v>
       </c>
@@ -3690,11 +4480,15 @@
       <c r="C198">
         <v>14</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>800.61500000000001</v>
       </c>
@@ -3704,11 +4498,15 @@
       <c r="C199">
         <v>34</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>1500</v>
       </c>
@@ -3718,11 +4516,15 @@
       <c r="C200">
         <v>11</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>785.69399999999996</v>
       </c>
@@ -3732,12 +4534,16 @@
       <c r="C201">
         <v>20</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="2">
         <v>9</v>
       </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>C9</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D201"/>
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>